--- a/SuppXLS/Scen_NCAP_NUC.xlsx
+++ b/SuppXLS/Scen_NCAP_NUC.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\_MACIEK\Uczelnia\_przedmioty\Integrated Energy Resource Planning\2023-2024\summer\Models\TIMES_MID_STUDENTS\Files for later\SuppXLS\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student\Desktop\MMM\27.05.2025\SuppXLS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2FA03A7-764D-414D-AC81-97635F8BC7E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="18816" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12135"/>
   </bookViews>
   <sheets>
     <sheet name="NCAP_BND" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="15">
   <si>
     <t>~TFM_INS</t>
   </si>
@@ -59,9 +58,6 @@
     <t>NCAP_BND</t>
   </si>
   <si>
-    <t>PP_NEW_NUC</t>
-  </si>
-  <si>
     <t>\I: Bound Type</t>
   </si>
   <si>
@@ -72,12 +68,21 @@
   </si>
   <si>
     <t>Process Set: Process Name</t>
+  </si>
+  <si>
+    <t>CAP_BND</t>
+  </si>
+  <si>
+    <t>FX</t>
+  </si>
+  <si>
+    <t>ELE_NEW_WIND-ON</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -201,7 +206,7 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -217,9 +222,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -257,9 +262,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -294,7 +299,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -329,7 +334,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -502,30 +507,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:F10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="3.5546875" customWidth="1"/>
-    <col min="2" max="2" width="10.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.5546875" customWidth="1"/>
-    <col min="5" max="5" width="11.88671875" customWidth="1"/>
-    <col min="6" max="6" width="15.109375" customWidth="1"/>
-    <col min="7" max="7" width="36.44140625" customWidth="1"/>
+    <col min="1" max="1" width="3.5703125" customWidth="1"/>
+    <col min="2" max="2" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -542,26 +547,26 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="2:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>9</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>10</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F4" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>7</v>
@@ -570,13 +575,13 @@
         <v>2025</v>
       </c>
       <c r="E5" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
@@ -587,13 +592,13 @@
         <v>2030</v>
       </c>
       <c r="E6" s="5">
-        <v>0</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
@@ -604,13 +609,13 @@
         <v>2035</v>
       </c>
       <c r="E7" s="6">
-        <v>2</v>
-      </c>
-      <c r="F7" s="6" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F7" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B8" s="5" t="s">
         <v>6</v>
       </c>
@@ -621,13 +626,13 @@
         <v>2040</v>
       </c>
       <c r="E8" s="5">
-        <v>2</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B9" s="6" t="s">
         <v>6</v>
       </c>
@@ -638,13 +643,13 @@
         <v>2045</v>
       </c>
       <c r="E9" s="6">
-        <v>2</v>
-      </c>
-      <c r="F9" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>16</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="7" t="s">
         <v>6</v>
       </c>
@@ -655,11 +660,65 @@
         <v>2050</v>
       </c>
       <c r="E10" s="7">
-        <v>0</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>8</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D13" s="7">
+        <v>2050</v>
+      </c>
+      <c r="E13" s="4">
+        <v>50</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B14" s="5"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B15" s="6"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="19" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="5"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B21" s="6"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="6"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" spans="2:6" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="7"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="7"/>
+      <c r="F22" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -670,6 +729,17 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100765A2D8ABDD1064B8560F0E0020228D7" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="faba48c57225b8cf4893994d76bae982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="154c1c0f-2c06-4f37-a5b1-faba3524bf7f" xmlns:ns3="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="653a6a65a0f1497e1436c43ea8aacb76" ns2:_="" ns3:_="">
     <xsd:import namespace="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
@@ -864,17 +934,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="154c1c0f-2c06-4f37-a5b1-faba3524bf7f">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="0be4b9af-ad17-4489-a21e-b8b210aeb5f9" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -885,16 +944,33 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DDFBE94-8463-4610-B89B-ED8FC2DD2550}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A0D1DF3B-E7FC-4762-97D3-E9AC14DDD5AF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="96cf5878-74d7-460f-a445-eb4c85d99a58"/>
     <ds:schemaRef ds:uri="833e474d-e424-4496-95f1-98e7780be11a"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8DDFBE94-8463-4610-B89B-ED8FC2DD2550}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="154c1c0f-2c06-4f37-a5b1-faba3524bf7f"/>
+    <ds:schemaRef ds:uri="0be4b9af-ad17-4489-a21e-b8b210aeb5f9"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
